--- a/biology/Botanique/Gomphostigma/Gomphostigma.xlsx
+++ b/biology/Botanique/Gomphostigma/Gomphostigma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gomphostigma est un genre de plantes de la famille des Scrofulariacées originaire du sud de l'Afrique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de petits arbustes, persistants.
 Les feuilles sont opposées et sessiles.
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces du genre sont originaires du sud de l'Afrique : Afrique du Sud, Namibie, Zimbabwe.
 L'usage ornemental de Gomphostigma virgata l'a répandue dans l'ensemble des pays à climat tempéré doux.
@@ -579,19 +595,59 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Position taxinomique et historique
-Le genre est actuellement placée dans la famille des Scrofulariacées, tribu des Buddlejeae.
-En 1843, Porphir Kiril Nicolas Stepanowitsch Turczaninow décrit une première fois le genre sur la base d'un échantillon collecté par Jean François Drège au Cap, Gomphostigma scoparioides, qui en devient l'espèce-type[1]. Il forme le nom sur Γόμφος (cheville) et Στίγμα (marque).
-En 1846, Alphonse Pyrame de Candolle le place dans la tribu des Buddleieae de la famille des Scrofulariacées[2]. Cette position est celle adoptée par la classification AGP III.
-George Bentham et Joseph Dalton Hooker, en 1878, placent le genre dans la famille des Loganiacées, suivis en cela, en 1909, par David Prain et Henry Alfred Cummins [3].
-En 1888, Henri Ernest Baillon en fait un genre de la série des Buddléiées placée dans la famille des Solanacées[4]
-En 1910, Karl Adolf Wilhelm le place dans la famille des Buddléjacées qu'il crée à cette occasion[5].
+          <t>Position taxinomique et historique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est actuellement placée dans la famille des Scrofulariacées, tribu des Buddlejeae.
+En 1843, Porphir Kiril Nicolas Stepanowitsch Turczaninow décrit une première fois le genre sur la base d'un échantillon collecté par Jean François Drège au Cap, Gomphostigma scoparioides, qui en devient l'espèce-type. Il forme le nom sur Γόμφος (cheville) et Στίγμα (marque).
+En 1846, Alphonse Pyrame de Candolle le place dans la tribu des Buddleieae de la famille des Scrofulariacées. Cette position est celle adoptée par la classification AGP III.
+George Bentham et Joseph Dalton Hooker, en 1878, placent le genre dans la famille des Loganiacées, suivis en cela, en 1909, par David Prain et Henry Alfred Cummins .
+En 1888, Henri Ernest Baillon en fait un genre de la série des Buddléiées placée dans la famille des Solanacées
+En 1910, Karl Adolf Wilhelm le place dans la famille des Buddléjacées qu'il crée à cette occasion.
 La classification phylogénétique AGP III a inclus ce genre dans la famille des Scrofulariacées.
-Liste des espèces
-La liste des espèces a été constituée à partir des index IPNI (International Plant Names Index) et Tropicos (Index du jardin botanique du Missouri), à la date de décembre 2011 :
-Gomphostigma incanum Oliv. (1884)[6]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gomphostigma</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gomphostigma</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nomenclature et systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La liste des espèces a été constituée à partir des index IPNI (International Plant Names Index) et Tropicos (Index du jardin botanique du Missouri), à la date de décembre 2011 :
+Gomphostigma incanum Oliv. (1884)
 Gomphostigma incomptum (L.f.) N.E.Br. (1929) - synonyme : Buddleja incompta L.f.
-Gomphostigma scoparioides Turcz. (1843)[7]
+Gomphostigma scoparioides Turcz. (1843)
 Gomphostigma virgatum (L.f.) Baill. (1888) - synonyme : Buddleja virgata L.f.</t>
         </is>
       </c>
